--- a/Doc/Schedules/Time Sheets/Tyrel Week 6.xlsx
+++ b/Doc/Schedules/Time Sheets/Tyrel Week 6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyrel\OneDrive\Documents\GitHub\Sound_Sentinel\Doc\Schedules\Time Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{4A8C6CD6-EB85-4A95-AF2C-92BEBC2D4E0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{6AA2F6EE-A4BA-4116-977F-C9CCFF68C42C}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{4A8C6CD6-EB85-4A95-AF2C-92BEBC2D4E0C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{C3A449FD-4A41-42CB-B3CC-E174843CDF29}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -477,28 +477,41 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B4" s="2">
+        <v>43368</v>
+      </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B5" s="2">
+        <v>43369</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>43370</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>43371</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43372</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
